--- a/speedup:efficiency graphs.xlsx
+++ b/speedup:efficiency graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="0" windowWidth="25600" windowHeight="16720" tabRatio="500"/>
+    <workbookView xWindow="2300" yWindow="0" windowWidth="25600" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2486,7 +2486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H30" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
